--- a/20210129_Tsurunuma/ForSubmit.xlsx
+++ b/20210129_Tsurunuma/ForSubmit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vebots\20210129GNSSlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vebots\2021GNSStest\20210129_Tsurunuma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64165376-8728-48BD-9063-761768ACDD57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EDBDDF-2FF4-4B17-B018-EDE1634ABC59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F4593F7D-5B8F-4698-ABFD-D9FF52CE6920}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
   <si>
     <t>AQLOC</t>
   </si>
@@ -151,6 +151,33 @@
   <si>
     <t>Mean</t>
     <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>RTK-Radio</t>
+  </si>
+  <si>
+    <t>RTK-Ntrip</t>
+  </si>
+  <si>
+    <t>FIX率 [%]</t>
+  </si>
+  <si>
+    <t>FIXに要する時間 [s]</t>
+  </si>
+  <si>
+    <t>精度(X) [cm]</t>
+  </si>
+  <si>
+    <t>精度(Y) [cm]</t>
+  </si>
+  <si>
+    <t>正確度 [cm]</t>
+  </si>
+  <si>
+    <t>hoge版</t>
   </si>
 </sst>
 </file>
@@ -176,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -184,11 +211,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -196,6 +243,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -968,7 +1017,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1001,19 +1050,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A08B7-DA56-4A0F-8238-445084C1482F}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1044,8 +1100,24 @@
       <c r="K1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1076,8 +1148,29 @@
       <c r="K2">
         <v>9.5057323098677454E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>78</v>
+      </c>
+      <c r="O2">
+        <v>114</v>
+      </c>
+      <c r="P2">
+        <v>1.7</v>
+      </c>
+      <c r="Q2">
+        <v>1.2</v>
+      </c>
+      <c r="R2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1108,8 +1201,26 @@
       <c r="K3">
         <v>8.1036263040713402E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3">
+        <v>86</v>
+      </c>
+      <c r="O3">
+        <v>78</v>
+      </c>
+      <c r="P3">
+        <v>1.7</v>
+      </c>
+      <c r="Q3">
+        <v>1.5</v>
+      </c>
+      <c r="R3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1140,8 +1251,26 @@
       <c r="K4">
         <v>9.5755815728975589E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4">
+        <v>98</v>
+      </c>
+      <c r="O4">
+        <v>14</v>
+      </c>
+      <c r="P4">
+        <v>0.6</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1172,8 +1301,26 @@
       <c r="K5">
         <v>8.196337573851185E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="4">
+        <v>77</v>
+      </c>
+      <c r="O5" s="4">
+        <v>166</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1205,7 +1352,7 @@
         <v>1.2491105076129241E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1237,7 +1384,7 @@
         <v>1.2604432239642901E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1269,7 +1416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1301,7 +1448,7 @@
         <v>9.3318492910774327E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1333,7 +1480,7 @@
         <v>6.8341706638310558E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1365,7 +1512,7 @@
         <v>9.3318492910774327E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1397,7 +1544,7 @@
         <v>6.8341706638310558E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1429,7 +1576,7 @@
         <v>1.1566732462271606E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1514,7 +1661,7 @@
         <f t="shared" si="0"/>
         <v>1.7956905692666132</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="1" t="s">
         <v>18</v>
       </c>
